--- a/Excels/Requisition.xlsx
+++ b/Excels/Requisition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan\Desktop\RMPuppet\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50186A6B-3846-476F-8448-1E69C3FA3E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAFFEB5-410E-44B5-A22D-2CCCD4AA9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>Requisition Form 1</t>
   </si>
@@ -166,6 +166,36 @@
   </si>
   <si>
     <t>management</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Applicant form</t>
+  </si>
+  <si>
+    <t>Applicant form 1</t>
+  </si>
+  <si>
+    <t>Requisition Form</t>
+  </si>
+  <si>
+    <t>Hiring Process</t>
+  </si>
+  <si>
+    <t>Three section three stage</t>
+  </si>
+  <si>
+    <t>Three section two stage</t>
   </si>
 </sst>
 </file>
@@ -499,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,14 +546,56 @@
     <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.08984375" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -557,8 +629,17 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -592,8 +673,17 @@
       <c r="K3" t="s">
         <v>35</v>
       </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -603,8 +693,8 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
-        <v>12</v>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -627,8 +717,17 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -638,8 +737,8 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2">
-        <v>12</v>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>37</v>
@@ -662,8 +761,17 @@
       <c r="K5" t="s">
         <v>32</v>
       </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -673,8 +781,8 @@
       <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2">
-        <v>12</v>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -697,8 +805,17 @@
       <c r="K6" t="s">
         <v>33</v>
       </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -708,8 +825,8 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2">
-        <v>12</v>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -732,8 +849,17 @@
       <c r="K7" t="s">
         <v>34</v>
       </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="H8" s="2"/>

--- a/Excels/Requisition.xlsx
+++ b/Excels/Requisition.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan\Desktop\RMPuppet\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAFFEB5-410E-44B5-A22D-2CCCD4AA9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D4CB84-5C76-4FC3-BD1E-9F6049DD9F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Add Candidate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>Requisition Form 1</t>
   </si>
@@ -196,6 +198,69 @@
   </si>
   <si>
     <t>Three section two stage</t>
+  </si>
+  <si>
+    <t>Requisition</t>
+  </si>
+  <si>
+    <t>Requisition Form 2</t>
+  </si>
+  <si>
+    <t>Applicant form 2</t>
+  </si>
+  <si>
+    <t>Reactjs</t>
+  </si>
+  <si>
+    <t>reactjs</t>
+  </si>
+  <si>
+    <t>Add Candidates</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>file:///C:/Users/Pavan/Desktop/MCA/PaymentSlip.pdf</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Nestor</t>
+  </si>
+  <si>
+    <t>Wilke</t>
+  </si>
+  <si>
+    <t>Sade</t>
+  </si>
+  <si>
+    <t>Kahn</t>
+  </si>
+  <si>
+    <t>Anjum</t>
+  </si>
+  <si>
+    <t>nestor@gmail.com</t>
+  </si>
+  <si>
+    <t>wilke@gmail.com</t>
+  </si>
+  <si>
+    <t>sade@gmail.com</t>
+  </si>
+  <si>
+    <t>kahn@gmail.com</t>
+  </si>
+  <si>
+    <t>anjum@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -245,10 +310,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,14 +599,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
@@ -869,4 +937,206 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE044D-5E98-4174-A6B1-DB78F38A8810}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404B65B1-2856-42D3-AB71-22C7921220FA}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>917347293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>917347294</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>917347295</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <v>917347296</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>917347297</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>